--- a/analysis/pre_gemini_data/participant 310/easy.xlsx
+++ b/analysis/pre_gemini_data/participant 310/easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,92 +422,88 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>codnbody</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>loopbodyt</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>loopstae</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>methdoec</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
@@ -557,25 +541,25 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
@@ -588,10 +572,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -607,25 +591,25 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>59</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
@@ -638,10 +622,10 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -657,25 +641,25 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>917.6</v>
+        <v>11235.07</v>
       </c>
       <c r="D5" t="n">
         <v>792.9400000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>762.77</v>
+        <v>495.83</v>
       </c>
       <c r="F5" t="n">
         <v>14608.68</v>
       </c>
       <c r="G5" t="n">
-        <v>1819.95</v>
+        <v>1553</v>
       </c>
       <c r="H5" t="n">
-        <v>5919.5</v>
+        <v>5001.89</v>
       </c>
       <c r="I5" t="n">
-        <v>5049.23</v>
+        <v>4682.25</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
@@ -688,10 +672,10 @@
         <v>132.17</v>
       </c>
       <c r="N5" t="n">
-        <v>3459.28</v>
+        <v>25567.58</v>
       </c>
       <c r="O5" t="n">
-        <v>1325.43</v>
+        <v>924.98</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -707,10 +691,10 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>2.21</v>
+        <v>15.04</v>
       </c>
       <c r="D6" t="n">
-        <v>0.68</v>
+        <v>1.06</v>
       </c>
       <c r="E6" t="n">
         <v>0.66</v>
@@ -719,34 +703,34 @@
         <v>35.15</v>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>2.08</v>
       </c>
       <c r="H6" t="n">
-        <v>5.09</v>
+        <v>6.7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.34</v>
+        <v>6.27</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
       <c r="L6" t="n">
-        <v>3.81</v>
+        <v>5.92</v>
       </c>
       <c r="M6" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="N6" t="n">
-        <v>8.32</v>
+        <v>34.24</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
@@ -757,25 +741,25 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>229.4</v>
+        <v>401.25</v>
       </c>
       <c r="D7" t="n">
         <v>396.47</v>
       </c>
       <c r="E7" t="n">
-        <v>254.26</v>
+        <v>247.91</v>
       </c>
       <c r="F7" t="n">
         <v>247.6</v>
       </c>
       <c r="G7" t="n">
-        <v>303.32</v>
+        <v>310.6</v>
       </c>
       <c r="H7" t="n">
-        <v>493.29</v>
+        <v>625.24</v>
       </c>
       <c r="I7" t="n">
-        <v>459.02</v>
+        <v>468.23</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
@@ -788,10 +772,10 @@
         <v>132.17</v>
       </c>
       <c r="N7" t="n">
-        <v>182.07</v>
+        <v>355.11</v>
       </c>
       <c r="O7" t="n">
-        <v>331.36</v>
+        <v>462.49</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -807,7 +791,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>150.18</v>
+        <v>132.16</v>
       </c>
       <c r="D8" t="n">
         <v>132.17</v>
@@ -838,7 +822,7 @@
         <v>132.17</v>
       </c>
       <c r="N8" t="n">
-        <v>150.1</v>
+        <v>74.22</v>
       </c>
       <c r="O8" t="n">
         <v>528.53</v>
@@ -869,106 +853,6 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
